--- a/docs/biomassFromLiterature.xlsx
+++ b/docs/biomassFromLiterature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="biomass_invivo" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="190">
   <si>
     <t xml:space="preserve">BiGG_id</t>
   </si>
@@ -428,15 +428,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">// this compound was initially mapped to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Monaco"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">cpd32070_c0 but this </t>
+      <t xml:space="preserve">// this compound was initially mapped to cpd32070_c0 but this </t>
     </r>
     <r>
       <rPr>
@@ -449,247 +441,157 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">-0.000188,</t>
-  </si>
-  <si>
     <t xml:space="preserve">5mthf_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5e-05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.81,</t>
+    <t xml:space="preserve">cpd00345_c0</t>
   </si>
   <si>
     <t xml:space="preserve">ala__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.748399,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001,</t>
+    <t xml:space="preserve">cpd00035_c0</t>
   </si>
   <si>
     <t xml:space="preserve">arg__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.130805,</t>
+    <t xml:space="preserve">cpd00051_c0</t>
   </si>
   <si>
     <t xml:space="preserve">asn__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.272689,</t>
+    <t xml:space="preserve">cpd00132_c0</t>
   </si>
   <si>
     <t xml:space="preserve">asp__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.374015,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.964348,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.004737,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.4e-05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6e-06,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.003158,</t>
+    <t xml:space="preserve">cpd00041_c0</t>
   </si>
   <si>
     <t xml:space="preserve">colipa_e</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000937,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.166895,</t>
+    <t xml:space="preserve">cpd15432_e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// this is core oligosaccharide lipid A </t>
   </si>
   <si>
     <t xml:space="preserve">cys__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.017197,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.026137,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.028567,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1e-05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.007106,</t>
+    <t xml:space="preserve">cpd00084_c0</t>
   </si>
   <si>
     <t xml:space="preserve">gln__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.200228,</t>
+    <t xml:space="preserve">cpd00053_c0</t>
   </si>
   <si>
     <t xml:space="preserve">glu__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.256058,</t>
+    <t xml:space="preserve">cpd00023_c0</t>
   </si>
   <si>
     <t xml:space="preserve">gly_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.498961,</t>
+    <t xml:space="preserve">cpd00033_c0</t>
   </si>
   <si>
     <t xml:space="preserve">glycogen_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.027476,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.186332,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.303945,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.266936,</t>
+    <t xml:space="preserve">cpd00155_c0</t>
   </si>
   <si>
     <t xml:space="preserve">his__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.067143,</t>
+    <t xml:space="preserve">cpd00119_c0</t>
   </si>
   <si>
     <t xml:space="preserve">ile__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.087361,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1776,</t>
+    <t xml:space="preserve">cpd00322_c0</t>
   </si>
   <si>
     <t xml:space="preserve">leu__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.206491,</t>
+    <t xml:space="preserve">cpd00107_c0</t>
   </si>
   <si>
     <t xml:space="preserve">lys__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.311404,</t>
+    <t xml:space="preserve">cpd00039_c0</t>
   </si>
   <si>
     <t xml:space="preserve">met__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.104726,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.007895,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00215,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00013,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0004,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4e-06,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001531,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.049404,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00042,</t>
+    <t xml:space="preserve">cpd00060_c0</t>
   </si>
   <si>
     <t xml:space="preserve">phe__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.13874,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771532,</t>
+    <t xml:space="preserve">cpd00066_c0</t>
   </si>
   <si>
     <t xml:space="preserve">pro__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.256971,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.035,</t>
+    <t xml:space="preserve">cpd00129_c0</t>
   </si>
   <si>
     <t xml:space="preserve">ser__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.317225,</t>
+    <t xml:space="preserve">cpd00054_c0</t>
   </si>
   <si>
     <t xml:space="preserve">sheme_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000223,</t>
+    <t xml:space="preserve">cpd00557_c0</t>
   </si>
   <si>
     <t xml:space="preserve">spmd_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.007,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3e-06,</t>
+    <t xml:space="preserve">cpd00264_c0</t>
   </si>
   <si>
     <t xml:space="preserve">thr__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.349831,</t>
+    <t xml:space="preserve">cpd00161_c0</t>
   </si>
   <si>
     <t xml:space="preserve">trp__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.087887,</t>
+    <t xml:space="preserve">cpd00065_c0</t>
   </si>
   <si>
     <t xml:space="preserve">tyr__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.040246,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.003,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.154549,</t>
+    <t xml:space="preserve">cpd00069_c0</t>
   </si>
   <si>
     <t xml:space="preserve">val__L_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.284577,</t>
+    <t xml:space="preserve">cpd00156_c0</t>
   </si>
   <si>
     <t xml:space="preserve">cpd32070_c0</t>
@@ -714,8 +616,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -765,7 +668,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Monaco"/>
       <family val="3"/>
     </font>
@@ -824,7 +727,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -845,10 +748,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -857,11 +756,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1983,7 +1894,7 @@
       <c r="B49" s="3" t="n">
         <v>-1E-007</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D49" s="3" t="n">
@@ -2006,7 +1917,7 @@
       <c r="B50" s="3" t="n">
         <v>-1.4E-005</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="3" t="n">
@@ -2029,7 +1940,7 @@
       <c r="B51" s="3" t="n">
         <v>-0.000937</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="3" t="n">
@@ -2052,7 +1963,7 @@
       <c r="B52" s="3" t="n">
         <v>-5.5E-005</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="3" t="n">
@@ -2073,7 +1984,7 @@
       <c r="B53" s="3" t="n">
         <v>-4E-006</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="3" t="n">
@@ -2096,7 +2007,7 @@
       <c r="B54" s="3" t="n">
         <v>-0.001531</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="3" t="n">
@@ -2119,7 +2030,7 @@
       <c r="B55" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="3" t="n">
@@ -2140,7 +2051,7 @@
       <c r="B56" s="3" t="n">
         <v>-0.00042</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="3" t="n">
@@ -2163,7 +2074,7 @@
       <c r="B57" s="3" t="n">
         <v>-4E-006</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="3" t="n">
@@ -2186,7 +2097,7 @@
       <c r="B58" s="3" t="n">
         <v>-0.000188</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="3" t="n">
@@ -2215,7 +2126,7 @@
       <c r="D59" s="3" t="n">
         <v>-0.049404</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>132</v>
       </c>
       <c r="F59" s="3"/>
@@ -2254,539 +2165,966 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="37.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="52.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="3" width="11.59"/>
+  </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="n">
+        <v>-0.000188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="3" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="3" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>-5E-005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-5E-005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="3" t="n">
+        <v>-0.748399</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="D6" s="8" t="n">
+        <v>-0.748399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="B8" s="3" t="n">
+        <v>-0.130805</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D8" s="8" t="n">
+        <v>-0.130805</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="3" t="n">
+        <v>-0.272689</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="D9" s="8" t="n">
+        <v>-0.272689</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="3" t="n">
+        <v>-0.374015</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="D10" s="8" t="n">
+        <v>-0.374015</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>-59.964348</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>-59.964348</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>-0.004737</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>-0.004737</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>-0.004737</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>-0.004737</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>-1.4E-005</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>-1.4E-005</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>-6E-006</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>-6E-006</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B17" s="3" t="n">
+        <v>-0.000937</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="D17" s="3" t="n">
+        <v>-0.000937</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>-0.166895</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>-0.166895</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B20" s="3" t="n">
+        <v>-0.017197</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D20" s="3" t="n">
+        <v>-0.017197</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>-0.026137</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>-0.026137</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>-0.028567</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>-0.028567</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>-0.028567</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>-0.028567</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>-0.026137</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>-0.026137</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>-1E-005</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>-1E-005</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>-0.007106</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>-0.007106</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="B27" s="3" t="n">
+        <v>-0.200228</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D27" s="3" t="n">
+        <v>-0.200228</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="B28" s="3" t="n">
+        <v>-0.256058</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="D28" s="3" t="n">
+        <v>-0.256058</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B29" s="3" t="n">
+        <v>-1.498961</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="D29" s="3" t="n">
+        <v>-1.498961</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="B30" s="3" t="n">
+        <v>-0.027476</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D30" s="3" t="n">
+        <v>-0.027476</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>-0.186332</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>-0.186332</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>-53.303945</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>-53.303945</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>58.266936</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>58.266936</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="B34" s="3" t="n">
+        <v>-0.067143</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="D34" s="3" t="n">
+        <v>-0.067143</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="B35" s="3" t="n">
+        <v>-0.087361</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="D35" s="3" t="n">
+        <v>-0.087361</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>-0.1776</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>-0.1776</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B37" s="3" t="n">
+        <v>-0.206491</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="D37" s="3" t="n">
+        <v>-0.206491</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="B38" s="3" t="n">
+        <v>-0.311404</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="D38" s="3" t="n">
+        <v>-0.311404</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="B39" s="3" t="n">
+        <v>-0.104726</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="D39" s="3" t="n">
+        <v>-0.104726</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>-0.007895</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>-0.007895</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>-0.00215</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>-0.00215</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="7" t="n">
+        <v>-5E-005</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="7" t="n">
+        <v>-5E-005</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>-0.00013</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>-0.00013</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>-4E-006</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>-4E-006</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>-0.001531</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>-0.049404</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>-0.049404</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>-0.00042</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>-0.004</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="B51" s="3" t="n">
+        <v>-0.13874</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="D51" s="3" t="n">
+        <v>-0.13874</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>59.81</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>0.771532</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>0.771532</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="B54" s="3" t="n">
+        <v>-0.256971</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="D54" s="3" t="n">
+        <v>-0.256971</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>-4E-006</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>-4E-005</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="B57" s="3" t="n">
+        <v>-0.317225</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="D57" s="3" t="n">
+        <v>-0.317225</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B58" s="3" t="n">
+        <v>-0.000223</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="D58" s="3" t="n">
+        <v>-0.000223</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B59" s="3" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="D59" s="3" t="n">
+        <v>-0.007</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="7" t="n">
+        <v>-3E-006</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="7" t="n">
+        <v>-3E-006</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="B61" s="3" t="n">
+        <v>-0.349831</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="D61" s="3" t="n">
+        <v>-0.349831</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="B62" s="3" t="n">
+        <v>-0.087887</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="D62" s="3" t="n">
+        <v>-0.087887</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="B63" s="3" t="n">
+        <v>-0.040246</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="D63" s="3" t="n">
+        <v>-0.040246</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>-0.154549</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>-0.154549</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="B66" s="3" t="n">
+        <v>-0.284577</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
+      <c r="D66" s="3" t="n">
+        <v>-0.284577</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="8" t="n">
+      <c r="B67" s="3" t="n">
+        <v>-0.003158</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="3" t="n">
         <v>-0.003158</v>
       </c>
     </row>
@@ -2812,191 +3150,191 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="6" t="n">
         <v>-5.5E-005</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="6" t="n">
         <v>-5.5E-005</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>-4E-006</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>-1E-005</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>-0.001531</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>-0.049404</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>-0.049404</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="6" t="n">
         <v>-0.00042</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>-0.004</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="6" t="n">
         <v>-4E-006</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="6" t="n">
         <v>-4E-005</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="6" t="n">
         <v>-0.000188</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>-0.002</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="6" t="n">
         <v>-1.4E-005</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6" t="n">
         <v>-0.000937</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="6" t="n">
         <v>-1E-007</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="6" t="n">
         <v>-1E-006</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>216</v>
+      <c r="E11" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3021,21 +3359,21 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>217</v>
+      <c r="A1" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>218</v>
+      <c r="A2" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>219</v>
+      <c r="A5" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
